--- a/Bus Allocations.xlsx
+++ b/Bus Allocations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lawre\OneDrive\Desktop\TTC_RAD_tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FF983E-80A7-45A3-903D-2B80D0F1F0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF03DD9-5410-4916-84F0-7CBD57F3B09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5106EA48-F6EC-48B3-9B00-4A377D782005}"/>
   </bookViews>
@@ -412,7 +412,7 @@
   <dimension ref="A1:CAA2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="ZQ1" workbookViewId="0">
-      <selection activeCell="AAF10" sqref="AAF10"/>
+      <selection activeCell="AAC3" sqref="AAC3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8698,7 +8698,7 @@
         <v>1</v>
       </c>
       <c r="AAC2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AAD2" t="s">
         <v>1</v>

--- a/Bus Allocations.xlsx
+++ b/Bus Allocations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lawre\OneDrive\Desktop\TTC_RAD_tracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lawre\OneDrive\Desktop\TTC-RAD-Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF03DD9-5410-4916-84F0-7CBD57F3B09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FA16E1-356B-4E3B-94D6-E5E620CB0BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5106EA48-F6EC-48B3-9B00-4A377D782005}"/>
   </bookViews>
@@ -411,8 +411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E4B37F-218A-4E51-8601-1E570BBEE6AD}">
   <dimension ref="A1:CAA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="ZQ1" workbookViewId="0">
-      <selection activeCell="AAC3" sqref="AAC3"/>
+    <sheetView tabSelected="1" topLeftCell="BZD1" workbookViewId="0">
+      <selection activeCell="BZV2" sqref="BZV2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8716,19 +8716,19 @@
         <v>1</v>
       </c>
       <c r="AAI2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AAJ2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AAK2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AAL2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AAM2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AAN2" t="s">
         <v>4</v>
@@ -12406,10 +12406,10 @@
         <v>1</v>
       </c>
       <c r="BVQ2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BVR2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BVS2" t="s">
         <v>0</v>
@@ -12706,34 +12706,34 @@
         <v>5</v>
       </c>
       <c r="BZM2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BZN2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BZO2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BZP2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BZQ2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BZR2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BZS2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BZT2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BZU2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BZV2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BZW2" t="s">
         <v>2</v>

--- a/Bus Allocations.xlsx
+++ b/Bus Allocations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lawre\OneDrive\Desktop\TTC-RAD-Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FA16E1-356B-4E3B-94D6-E5E620CB0BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF347FBF-5876-4C4A-93C6-29733F98E394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5106EA48-F6EC-48B3-9B00-4A377D782005}"/>
   </bookViews>
@@ -411,8 +411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E4B37F-218A-4E51-8601-1E570BBEE6AD}">
   <dimension ref="A1:CAA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BZD1" workbookViewId="0">
-      <selection activeCell="BZV2" sqref="BZV2"/>
+    <sheetView tabSelected="1" topLeftCell="BXI1" workbookViewId="0">
+      <selection activeCell="BXZ3" sqref="BXZ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12589,7 +12589,7 @@
         <v>4</v>
       </c>
       <c r="BXZ2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BYA2" t="s">
         <v>0</v>

--- a/Bus Allocations.xlsx
+++ b/Bus Allocations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lawre\OneDrive\Desktop\TTC-RAD-Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF347FBF-5876-4C4A-93C6-29733F98E394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFAA81B9-9904-4B55-9BC9-A86BB1D4E336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5106EA48-F6EC-48B3-9B00-4A377D782005}"/>
   </bookViews>
@@ -411,8 +411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E4B37F-218A-4E51-8601-1E570BBEE6AD}">
   <dimension ref="A1:CAA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BXI1" workbookViewId="0">
-      <selection activeCell="BXZ3" sqref="BXZ3"/>
+    <sheetView tabSelected="1" topLeftCell="BYS1" workbookViewId="0">
+      <selection activeCell="BZL7" sqref="BZL7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12691,19 +12691,19 @@
         <v>5</v>
       </c>
       <c r="BZH2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BZI2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BZJ2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BZK2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BZL2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BZM2" t="s">
         <v>4</v>

--- a/Bus Allocations.xlsx
+++ b/Bus Allocations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lawre\OneDrive\Desktop\TTC-RAD-Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFAA81B9-9904-4B55-9BC9-A86BB1D4E336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3B78F4-DBD3-450A-9043-FDA6961FED38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5106EA48-F6EC-48B3-9B00-4A377D782005}"/>
   </bookViews>
@@ -411,8 +411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E4B37F-218A-4E51-8601-1E570BBEE6AD}">
   <dimension ref="A1:CAA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BYS1" workbookViewId="0">
-      <selection activeCell="BZL7" sqref="BZL7"/>
+    <sheetView tabSelected="1" topLeftCell="BRS1" workbookViewId="0">
+      <selection activeCell="BSF14" sqref="BSF14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11911,16 +11911,16 @@
         <v>6</v>
       </c>
       <c r="BPH2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BPI2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BPJ2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BPK2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BPL2" t="s">
         <v>4</v>
@@ -12127,7 +12127,7 @@
         <v>4</v>
       </c>
       <c r="BSB2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BSC2" t="s">
         <v>4</v>
@@ -12139,10 +12139,10 @@
         <v>4</v>
       </c>
       <c r="BSF2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BSG2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BSH2" t="s">
         <v>4</v>
@@ -12154,25 +12154,25 @@
         <v>4</v>
       </c>
       <c r="BSK2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BSL2" t="s">
         <v>4</v>
       </c>
       <c r="BSM2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BSN2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BSO2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BSP2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BSQ2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BSR2" t="s">
         <v>7</v>

--- a/Bus Allocations.xlsx
+++ b/Bus Allocations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lawre\OneDrive\Desktop\TTC-RAD-Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3B78F4-DBD3-450A-9043-FDA6961FED38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CB5034-BA8D-4E7D-ADFD-8E78BF877E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5106EA48-F6EC-48B3-9B00-4A377D782005}"/>
   </bookViews>
@@ -411,8 +411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E4B37F-218A-4E51-8601-1E570BBEE6AD}">
   <dimension ref="A1:CAA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BRS1" workbookViewId="0">
-      <selection activeCell="BSF14" sqref="BSF14"/>
+    <sheetView tabSelected="1" topLeftCell="MO1" workbookViewId="0">
+      <selection activeCell="MY6" sqref="MY6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7654,7 +7654,7 @@
         <v>2</v>
       </c>
       <c r="MS2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="MT2" t="s">
         <v>2</v>
@@ -7666,13 +7666,13 @@
         <v>2</v>
       </c>
       <c r="MW2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="MX2" t="s">
         <v>2</v>
       </c>
       <c r="MY2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="MZ2" t="s">
         <v>2</v>
@@ -7684,7 +7684,7 @@
         <v>2</v>
       </c>
       <c r="NC2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="ND2" t="s">
         <v>2</v>
@@ -7696,7 +7696,7 @@
         <v>2</v>
       </c>
       <c r="NG2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="NH2" t="s">
         <v>2</v>

--- a/Bus Allocations.xlsx
+++ b/Bus Allocations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lawre\OneDrive\Desktop\TTC-RAD-Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CB5034-BA8D-4E7D-ADFD-8E78BF877E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBD34DC-5199-4F44-A241-FCD1E0EBD610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5106EA48-F6EC-48B3-9B00-4A377D782005}"/>
   </bookViews>
@@ -411,8 +411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E4B37F-218A-4E51-8601-1E570BBEE6AD}">
   <dimension ref="A1:CAA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="MO1" workbookViewId="0">
-      <selection activeCell="MY6" sqref="MY6"/>
+    <sheetView tabSelected="1" topLeftCell="MS1" workbookViewId="0">
+      <selection activeCell="NM3" sqref="NM3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7639,7 +7639,7 @@
         <v>1</v>
       </c>
       <c r="MN2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="MO2" t="s">
         <v>2</v>
@@ -7648,13 +7648,13 @@
         <v>2</v>
       </c>
       <c r="MQ2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="MR2" t="s">
         <v>2</v>
       </c>
       <c r="MS2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="MT2" t="s">
         <v>2</v>
@@ -7666,13 +7666,13 @@
         <v>2</v>
       </c>
       <c r="MW2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="MX2" t="s">
         <v>2</v>
       </c>
       <c r="MY2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="MZ2" t="s">
         <v>2</v>
@@ -7684,7 +7684,7 @@
         <v>2</v>
       </c>
       <c r="NC2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="ND2" t="s">
         <v>2</v>
@@ -7696,7 +7696,7 @@
         <v>2</v>
       </c>
       <c r="NG2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="NH2" t="s">
         <v>2</v>
@@ -7705,7 +7705,7 @@
         <v>2</v>
       </c>
       <c r="NJ2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="NK2" t="s">
         <v>2</v>
@@ -7714,7 +7714,7 @@
         <v>2</v>
       </c>
       <c r="NM2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="NN2" t="s">
         <v>2</v>

--- a/Bus Allocations.xlsx
+++ b/Bus Allocations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lawre\OneDrive\Desktop\TTC-RAD-Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBD34DC-5199-4F44-A241-FCD1E0EBD610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551EF8FC-3A11-4258-BE8C-3788F3EF0B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5106EA48-F6EC-48B3-9B00-4A377D782005}"/>
   </bookViews>
@@ -411,8 +411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E4B37F-218A-4E51-8601-1E570BBEE6AD}">
   <dimension ref="A1:CAA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="MS1" workbookViewId="0">
-      <selection activeCell="NM3" sqref="NM3"/>
+    <sheetView tabSelected="1" topLeftCell="IS1" workbookViewId="0">
+      <selection activeCell="JA16" sqref="JA16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7363,10 +7363,10 @@
         <v>0</v>
       </c>
       <c r="IZ2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="JA2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="JB2" t="s">
         <v>1</v>
@@ -7408,7 +7408,7 @@
         <v>0</v>
       </c>
       <c r="JO2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="JP2" t="s">
         <v>7</v>
@@ -7648,7 +7648,7 @@
         <v>2</v>
       </c>
       <c r="MQ2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="MR2" t="s">
         <v>2</v>

--- a/Bus Allocations.xlsx
+++ b/Bus Allocations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lawre\OneDrive\Desktop\TTC-RAD-Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551EF8FC-3A11-4258-BE8C-3788F3EF0B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785CA3D6-DB8B-468B-8A35-76A50CD11F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5106EA48-F6EC-48B3-9B00-4A377D782005}"/>
   </bookViews>
@@ -411,8 +411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E4B37F-218A-4E51-8601-1E570BBEE6AD}">
   <dimension ref="A1:CAA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="IS1" workbookViewId="0">
-      <selection activeCell="JA16" sqref="JA16"/>
+    <sheetView tabSelected="1" topLeftCell="JO1" workbookViewId="0">
+      <selection activeCell="JZ3" sqref="JZ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7441,7 +7441,7 @@
         <v>0</v>
       </c>
       <c r="JZ2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="KA2" t="s">
         <v>0</v>
@@ -8299,34 +8299,34 @@
         <v>2</v>
       </c>
       <c r="UZ2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="VA2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="VB2" t="s">
         <v>2</v>
       </c>
       <c r="VC2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="VD2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="VE2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="VF2" t="s">
         <v>2</v>
       </c>
       <c r="VG2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="VH2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="VI2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="VJ2" t="s">
         <v>3</v>
@@ -10693,31 +10693,31 @@
         <v>5</v>
       </c>
       <c r="AZR2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AZS2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AZT2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AZU2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AZV2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AZW2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AZX2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AZY2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AZZ2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BAA2" t="s">
         <v>5</v>
@@ -12661,79 +12661,79 @@
         <v>5</v>
       </c>
       <c r="BYX2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BYY2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BYZ2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BZA2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BZB2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BZC2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BZD2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BZE2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BZF2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BZG2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BZH2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BZI2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BZJ2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BZK2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BZL2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BZM2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BZN2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BZO2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BZP2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BZQ2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BZR2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BZS2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BZT2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BZU2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BZV2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BZW2" t="s">
         <v>2</v>

--- a/Bus Allocations.xlsx
+++ b/Bus Allocations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lawre\OneDrive\Desktop\TTC-RAD-Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785CA3D6-DB8B-468B-8A35-76A50CD11F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C722C5-A4DA-4D77-A434-341B74945FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5106EA48-F6EC-48B3-9B00-4A377D782005}"/>
   </bookViews>
@@ -411,8 +411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E4B37F-218A-4E51-8601-1E570BBEE6AD}">
   <dimension ref="A1:CAA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="JO1" workbookViewId="0">
-      <selection activeCell="JZ3" sqref="JZ3"/>
+    <sheetView tabSelected="1" topLeftCell="UU1" workbookViewId="0">
+      <selection activeCell="VB3" sqref="VB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7438,7 +7438,7 @@
         <v>7</v>
       </c>
       <c r="JY2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="JZ2" t="s">
         <v>7</v>
@@ -8305,7 +8305,7 @@
         <v>3</v>
       </c>
       <c r="VB2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="VC2" t="s">
         <v>3</v>
@@ -8317,7 +8317,7 @@
         <v>3</v>
       </c>
       <c r="VF2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="VG2" t="s">
         <v>3</v>

--- a/Bus Allocations.xlsx
+++ b/Bus Allocations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lawre\OneDrive\Desktop\TTC-RAD-Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C722C5-A4DA-4D77-A434-341B74945FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63591581-F033-43A9-A651-6B70696505EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5106EA48-F6EC-48B3-9B00-4A377D782005}"/>
   </bookViews>
@@ -411,8 +411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E4B37F-218A-4E51-8601-1E570BBEE6AD}">
   <dimension ref="A1:CAA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="UU1" workbookViewId="0">
-      <selection activeCell="VB3" sqref="VB3"/>
+    <sheetView tabSelected="1" topLeftCell="MR1" workbookViewId="0">
+      <selection activeCell="MZ17" sqref="MZ17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7639,7 +7639,7 @@
         <v>1</v>
       </c>
       <c r="MN2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="MO2" t="s">
         <v>2</v>
@@ -7705,7 +7705,7 @@
         <v>2</v>
       </c>
       <c r="NJ2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="NK2" t="s">
         <v>2</v>
@@ -7714,7 +7714,7 @@
         <v>2</v>
       </c>
       <c r="NM2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="NN2" t="s">
         <v>2</v>

--- a/Bus Allocations.xlsx
+++ b/Bus Allocations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lawre\OneDrive\Desktop\TTC-RAD-Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63591581-F033-43A9-A651-6B70696505EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F26C333-83F4-4BAA-8A6F-FF50493AD98E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5106EA48-F6EC-48B3-9B00-4A377D782005}"/>
   </bookViews>
@@ -411,8 +411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E4B37F-218A-4E51-8601-1E570BBEE6AD}">
   <dimension ref="A1:CAA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="MR1" workbookViewId="0">
-      <selection activeCell="MZ17" sqref="MZ17"/>
+    <sheetView tabSelected="1" topLeftCell="BYP1" workbookViewId="0">
+      <selection activeCell="BYZ7" sqref="BYZ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7351,13 +7351,13 @@
         <v>1</v>
       </c>
       <c r="IV2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="IW2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="IX2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="IY2" t="s">
         <v>0</v>
@@ -7444,25 +7444,25 @@
         <v>7</v>
       </c>
       <c r="KA2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="KB2" t="s">
         <v>7</v>
       </c>
       <c r="KC2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="KD2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="KE2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="KF2" t="s">
         <v>7</v>
       </c>
       <c r="KG2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="KH2" t="s">
         <v>0</v>
@@ -8245,16 +8245,16 @@
         <v>2</v>
       </c>
       <c r="UH2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="UI2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="UJ2" t="s">
         <v>2</v>
       </c>
       <c r="UK2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="UL2" t="s">
         <v>2</v>
@@ -8266,7 +8266,7 @@
         <v>2</v>
       </c>
       <c r="UO2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="UP2" t="s">
         <v>2</v>
@@ -12670,13 +12670,13 @@
         <v>4</v>
       </c>
       <c r="BZA2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BZB2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BZC2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BZD2" t="s">
         <v>4</v>

--- a/Bus Allocations.xlsx
+++ b/Bus Allocations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lawre\OneDrive\Desktop\TTC-RAD-Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F26C333-83F4-4BAA-8A6F-FF50493AD98E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7A97B6-CD09-4441-B6F5-6BA5F658C78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5106EA48-F6EC-48B3-9B00-4A377D782005}"/>
+    <workbookView xWindow="-1320" yWindow="2472" windowWidth="7500" windowHeight="9276" xr2:uid="{5106EA48-F6EC-48B3-9B00-4A377D782005}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -411,8 +411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E4B37F-218A-4E51-8601-1E570BBEE6AD}">
   <dimension ref="A1:CAA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BYP1" workbookViewId="0">
-      <selection activeCell="BYZ7" sqref="BYZ7"/>
+    <sheetView tabSelected="1" topLeftCell="BZB1" workbookViewId="0">
+      <selection activeCell="BZF6" sqref="BZF6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8239,10 +8239,10 @@
         <v>2</v>
       </c>
       <c r="UF2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="UG2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="UH2" t="s">
         <v>3</v>
@@ -8251,19 +8251,19 @@
         <v>3</v>
       </c>
       <c r="UJ2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="UK2" t="s">
         <v>3</v>
       </c>
       <c r="UL2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="UM2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="UN2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="UO2" t="s">
         <v>3</v>
@@ -12661,13 +12661,13 @@
         <v>5</v>
       </c>
       <c r="BYX2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BYY2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BYZ2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BZA2" t="s">
         <v>5</v>
@@ -12679,7 +12679,7 @@
         <v>5</v>
       </c>
       <c r="BZD2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BZE2" t="s">
         <v>4</v>

--- a/Bus Allocations.xlsx
+++ b/Bus Allocations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lawre\OneDrive\Desktop\TTC-RAD-Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7A97B6-CD09-4441-B6F5-6BA5F658C78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515BBE06-A6FE-4D53-A101-FE8B6CE684A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1320" yWindow="2472" windowWidth="7500" windowHeight="9276" xr2:uid="{5106EA48-F6EC-48B3-9B00-4A377D782005}"/>
+    <workbookView xWindow="13668" yWindow="2664" windowWidth="7500" windowHeight="9276" xr2:uid="{5106EA48-F6EC-48B3-9B00-4A377D782005}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -411,8 +411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E4B37F-218A-4E51-8601-1E570BBEE6AD}">
   <dimension ref="A1:CAA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BZB1" workbookViewId="0">
-      <selection activeCell="BZF6" sqref="BZF6"/>
+    <sheetView tabSelected="1" topLeftCell="BZA1" workbookViewId="0">
+      <selection activeCell="BZD6" sqref="BZD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7360,7 +7360,7 @@
         <v>7</v>
       </c>
       <c r="IY2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="IZ2" t="s">
         <v>7</v>
@@ -7369,7 +7369,7 @@
         <v>7</v>
       </c>
       <c r="JB2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="JC2" t="s">
         <v>1</v>
@@ -7378,7 +7378,7 @@
         <v>7</v>
       </c>
       <c r="JE2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="JF2" t="s">
         <v>7</v>
@@ -7387,7 +7387,7 @@
         <v>7</v>
       </c>
       <c r="JH2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="JI2" t="s">
         <v>7</v>
@@ -7405,7 +7405,7 @@
         <v>7</v>
       </c>
       <c r="JN2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="JO2" t="s">
         <v>7</v>
@@ -7423,10 +7423,10 @@
         <v>7</v>
       </c>
       <c r="JT2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="JU2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="JV2" t="s">
         <v>7</v>
@@ -8731,52 +8731,52 @@
         <v>1</v>
       </c>
       <c r="AAN2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AAO2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AAP2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AAQ2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AAR2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AAS2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AAT2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AAU2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AAV2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AAW2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AAX2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AAY2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AAZ2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="ABA2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="ABB2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="ABC2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="ABD2" t="s">
         <v>4</v>
@@ -11884,43 +11884,43 @@
         <v>6</v>
       </c>
       <c r="BOY2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BOZ2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BPA2" t="s">
         <v>6</v>
       </c>
       <c r="BPB2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BPC2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BPD2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BPE2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BPF2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BPG2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BPH2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BPI2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BPJ2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BPK2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BPL2" t="s">
         <v>4</v>
@@ -12667,19 +12667,19 @@
         <v>5</v>
       </c>
       <c r="BYZ2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BZA2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BZB2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BZC2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BZD2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BZE2" t="s">
         <v>4</v>

--- a/Bus Allocations.xlsx
+++ b/Bus Allocations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lawre\OneDrive\Desktop\TTC-RAD-Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515BBE06-A6FE-4D53-A101-FE8B6CE684A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972D9030-8B9A-400C-B55F-0A3DD57132E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13668" yWindow="2664" windowWidth="7500" windowHeight="9276" xr2:uid="{5106EA48-F6EC-48B3-9B00-4A377D782005}"/>
   </bookViews>
@@ -411,8 +411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E4B37F-218A-4E51-8601-1E570BBEE6AD}">
   <dimension ref="A1:CAA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BZA1" workbookViewId="0">
-      <selection activeCell="BZD6" sqref="BZD6"/>
+    <sheetView tabSelected="1" topLeftCell="UT1" workbookViewId="0">
+      <selection activeCell="UX2" sqref="UX2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8278,7 +8278,7 @@
         <v>2</v>
       </c>
       <c r="US2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="UT2" t="s">
         <v>2</v>
@@ -8287,16 +8287,16 @@
         <v>2</v>
       </c>
       <c r="UV2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="UW2" t="s">
         <v>2</v>
       </c>
       <c r="UX2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="UY2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="UZ2" t="s">
         <v>3</v>

--- a/Bus Allocations.xlsx
+++ b/Bus Allocations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lawre\OneDrive\Desktop\TTC-RAD-Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972D9030-8B9A-400C-B55F-0A3DD57132E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58602FE-0ADC-4D82-A778-8E10678AA3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13668" yWindow="2664" windowWidth="7500" windowHeight="9276" xr2:uid="{5106EA48-F6EC-48B3-9B00-4A377D782005}"/>
   </bookViews>
@@ -411,8 +411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E4B37F-218A-4E51-8601-1E570BBEE6AD}">
   <dimension ref="A1:CAA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="UT1" workbookViewId="0">
-      <selection activeCell="UX2" sqref="UX2"/>
+    <sheetView tabSelected="1" topLeftCell="UW1" workbookViewId="0">
+      <selection activeCell="VB6" sqref="VB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8269,28 +8269,28 @@
         <v>3</v>
       </c>
       <c r="UP2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="UQ2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="UR2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="US2" t="s">
         <v>3</v>
       </c>
       <c r="UT2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="UU2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="UV2" t="s">
         <v>3</v>
       </c>
       <c r="UW2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="UX2" t="s">
         <v>3</v>

--- a/Bus Allocations.xlsx
+++ b/Bus Allocations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lawre\OneDrive\Desktop\TTC-RAD-Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58602FE-0ADC-4D82-A778-8E10678AA3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6D9D12-6BBA-4435-838E-C392DCB5C884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13668" yWindow="2664" windowWidth="7500" windowHeight="9276" xr2:uid="{5106EA48-F6EC-48B3-9B00-4A377D782005}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5106EA48-F6EC-48B3-9B00-4A377D782005}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -411,8 +411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E4B37F-218A-4E51-8601-1E570BBEE6AD}">
   <dimension ref="A1:CAA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="UW1" workbookViewId="0">
-      <selection activeCell="VB6" sqref="VB6"/>
+    <sheetView tabSelected="1" topLeftCell="IR1" workbookViewId="0">
+      <selection activeCell="JC3" sqref="JC3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7372,7 +7372,7 @@
         <v>7</v>
       </c>
       <c r="JC2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="JD2" t="s">
         <v>7</v>
